--- a/uniquelenders_classified_for_upload.xlsx
+++ b/uniquelenders_classified_for_upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ebe022545862f93/Asus old pc/Documents/Inframation_Europe_Deals since 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{94E4AC42-B6B8-0142-9E76-EDC8784E1189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4C3CB6A-1BCD-4382-8A43-47B87E08E629}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{94E4AC42-B6B8-0142-9E76-EDC8784E1189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8753002C-A9C9-4292-8AFA-D369EE82D260}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28305" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="46830" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1473,10 +1473,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1768,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5304,10 +5300,10 @@
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D252" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
